--- a/Diagrama.xlsx
+++ b/Diagrama.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Empresa</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Voto</t>
+  </si>
+  <si>
+    <t>Dimensionamento</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,6 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,15 +726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>373406</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>356210</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>236219</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213539</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>151812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -739,8 +743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4168166" y="2171700"/>
-          <a:ext cx="4663413" cy="1592580"/>
+          <a:off x="4150970" y="2263498"/>
+          <a:ext cx="5755209" cy="1423994"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -769,6 +773,66 @@
             <a:gd name="connsiteY4" fmla="*/ 948627 h 1504848"/>
             <a:gd name="connsiteX5" fmla="*/ 393202 w 4468176"/>
             <a:gd name="connsiteY5" fmla="*/ 142682 h 1504848"/>
+            <a:gd name="connsiteX0" fmla="*/ 393202 w 3850182"/>
+            <a:gd name="connsiteY0" fmla="*/ 139141 h 1478072"/>
+            <a:gd name="connsiteX1" fmla="*/ 3547882 w 3850182"/>
+            <a:gd name="connsiteY1" fmla="*/ 116281 h 1478072"/>
+            <a:gd name="connsiteX2" fmla="*/ 3537345 w 3850182"/>
+            <a:gd name="connsiteY2" fmla="*/ 1307939 h 1478072"/>
+            <a:gd name="connsiteX3" fmla="*/ 1901962 w 3850182"/>
+            <a:gd name="connsiteY3" fmla="*/ 1404061 h 1478072"/>
+            <a:gd name="connsiteX4" fmla="*/ 214668 w 3850182"/>
+            <a:gd name="connsiteY4" fmla="*/ 945086 h 1478072"/>
+            <a:gd name="connsiteX5" fmla="*/ 393202 w 3850182"/>
+            <a:gd name="connsiteY5" fmla="*/ 139141 h 1478072"/>
+            <a:gd name="connsiteX0" fmla="*/ 393202 w 4009301"/>
+            <a:gd name="connsiteY0" fmla="*/ 130106 h 1434427"/>
+            <a:gd name="connsiteX1" fmla="*/ 3547882 w 4009301"/>
+            <a:gd name="connsiteY1" fmla="*/ 107246 h 1434427"/>
+            <a:gd name="connsiteX2" fmla="*/ 3822083 w 4009301"/>
+            <a:gd name="connsiteY2" fmla="*/ 1169300 h 1434427"/>
+            <a:gd name="connsiteX3" fmla="*/ 1901962 w 4009301"/>
+            <a:gd name="connsiteY3" fmla="*/ 1395026 h 1434427"/>
+            <a:gd name="connsiteX4" fmla="*/ 214668 w 4009301"/>
+            <a:gd name="connsiteY4" fmla="*/ 936051 h 1434427"/>
+            <a:gd name="connsiteX5" fmla="*/ 393202 w 4009301"/>
+            <a:gd name="connsiteY5" fmla="*/ 130106 h 1434427"/>
+            <a:gd name="connsiteX0" fmla="*/ 393202 w 4016635"/>
+            <a:gd name="connsiteY0" fmla="*/ 122184 h 1413377"/>
+            <a:gd name="connsiteX1" fmla="*/ 3547882 w 4016635"/>
+            <a:gd name="connsiteY1" fmla="*/ 99324 h 1413377"/>
+            <a:gd name="connsiteX2" fmla="*/ 3833035 w 4016635"/>
+            <a:gd name="connsiteY2" fmla="*/ 1046174 h 1413377"/>
+            <a:gd name="connsiteX3" fmla="*/ 1901962 w 4016635"/>
+            <a:gd name="connsiteY3" fmla="*/ 1387104 h 1413377"/>
+            <a:gd name="connsiteX4" fmla="*/ 214668 w 4016635"/>
+            <a:gd name="connsiteY4" fmla="*/ 928129 h 1413377"/>
+            <a:gd name="connsiteX5" fmla="*/ 393202 w 4016635"/>
+            <a:gd name="connsiteY5" fmla="*/ 122184 h 1413377"/>
+            <a:gd name="connsiteX0" fmla="*/ 419218 w 4295171"/>
+            <a:gd name="connsiteY0" fmla="*/ 58415 h 1348102"/>
+            <a:gd name="connsiteX1" fmla="*/ 3995530 w 4295171"/>
+            <a:gd name="connsiteY1" fmla="*/ 165160 h 1348102"/>
+            <a:gd name="connsiteX2" fmla="*/ 3859051 w 4295171"/>
+            <a:gd name="connsiteY2" fmla="*/ 982405 h 1348102"/>
+            <a:gd name="connsiteX3" fmla="*/ 1927978 w 4295171"/>
+            <a:gd name="connsiteY3" fmla="*/ 1323335 h 1348102"/>
+            <a:gd name="connsiteX4" fmla="*/ 240684 w 4295171"/>
+            <a:gd name="connsiteY4" fmla="*/ 864360 h 1348102"/>
+            <a:gd name="connsiteX5" fmla="*/ 419218 w 4295171"/>
+            <a:gd name="connsiteY5" fmla="*/ 58415 h 1348102"/>
+            <a:gd name="connsiteX0" fmla="*/ 405559 w 4135691"/>
+            <a:gd name="connsiteY0" fmla="*/ 55942 h 1345550"/>
+            <a:gd name="connsiteX1" fmla="*/ 3762842 w 4135691"/>
+            <a:gd name="connsiteY1" fmla="*/ 169888 h 1345550"/>
+            <a:gd name="connsiteX2" fmla="*/ 3845392 w 4135691"/>
+            <a:gd name="connsiteY2" fmla="*/ 979932 h 1345550"/>
+            <a:gd name="connsiteX3" fmla="*/ 1914319 w 4135691"/>
+            <a:gd name="connsiteY3" fmla="*/ 1320862 h 1345550"/>
+            <a:gd name="connsiteX4" fmla="*/ 227025 w 4135691"/>
+            <a:gd name="connsiteY4" fmla="*/ 861887 h 1345550"/>
+            <a:gd name="connsiteX5" fmla="*/ 405559 w 4135691"/>
+            <a:gd name="connsiteY5" fmla="*/ 55942 h 1345550"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -793,34 +857,34 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="4468176" h="1504848">
+            <a:path w="4135691" h="1345550">
               <a:moveTo>
-                <a:pt x="393202" y="142682"/>
+                <a:pt x="405559" y="55942"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="948737" y="4548"/>
-                <a:pt x="2882402" y="-83378"/>
-                <a:pt x="3547882" y="119822"/>
+                <a:pt x="994862" y="-59391"/>
+                <a:pt x="3189537" y="15890"/>
+                <a:pt x="3762842" y="169888"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="4213362" y="323022"/>
-                <a:pt x="4660402" y="1147252"/>
-                <a:pt x="4386082" y="1361882"/>
+                <a:pt x="4336147" y="323886"/>
+                <a:pt x="4153479" y="788103"/>
+                <a:pt x="3845392" y="979932"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="4111762" y="1576512"/>
-                <a:pt x="2583952" y="1513012"/>
-                <a:pt x="1901962" y="1407602"/>
+                <a:pt x="3537305" y="1171761"/>
+                <a:pt x="2596309" y="1426272"/>
+                <a:pt x="1914319" y="1320862"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="1219972" y="1302192"/>
-                <a:pt x="468668" y="1159447"/>
-                <a:pt x="214668" y="948627"/>
+                <a:pt x="1232329" y="1215452"/>
+                <a:pt x="481025" y="1072707"/>
+                <a:pt x="227025" y="861887"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="-39332" y="737807"/>
-                <a:pt x="-162333" y="280816"/>
-                <a:pt x="393202" y="142682"/>
+                <a:pt x="-26975" y="651067"/>
+                <a:pt x="-183744" y="171275"/>
+                <a:pt x="405559" y="55942"/>
               </a:cubicBezTo>
               <a:close/>
             </a:path>
@@ -1522,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:M18"/>
+  <dimension ref="F6:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,9 +1600,10 @@
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1557,21 +1622,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="6:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="6:14" x14ac:dyDescent="0.3">
       <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:14" x14ac:dyDescent="0.3">
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="6:14" x14ac:dyDescent="0.3">
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="11:13" x14ac:dyDescent="0.3">

--- a/Diagrama.xlsx
+++ b/Diagrama.xlsx
@@ -726,15 +726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>356210</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7978</xdr:rowOff>
+      <xdr:colOff>470510</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>381358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>213539</xdr:colOff>
+      <xdr:colOff>327839</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>151812</xdr:rowOff>
+      <xdr:rowOff>98472</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -743,7 +743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4150970" y="2263498"/>
+          <a:off x="4265270" y="2210158"/>
           <a:ext cx="5755209" cy="1423994"/>
         </a:xfrm>
         <a:custGeom>
@@ -1589,7 +1589,7 @@
   <dimension ref="F6:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
